--- a/aliexpress/平台物流订单.xlsx
+++ b/aliexpress/平台物流订单.xlsx
@@ -397,92 +397,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>编号</v>
+        <v>日期</v>
       </c>
       <c r="B1" t="str">
-        <v>仓库</v>
+        <v>在售数量</v>
       </c>
       <c r="C1" t="str">
-        <v>订单号</v>
+        <v>动销率</v>
       </c>
       <c r="D1" t="str">
-        <v>邮编</v>
+        <v>销售额</v>
       </c>
       <c r="E1" t="str">
-        <v>运单号</v>
+        <v>订单量</v>
       </c>
       <c r="F1" t="str">
-        <v>产品SKU</v>
+        <v>客单价</v>
       </c>
       <c r="G1" t="str">
-        <v>手机号</v>
+        <v>总预览量</v>
       </c>
       <c r="H1" t="str">
-        <v>收货人地址</v>
+        <v>总访客数</v>
+      </c>
+      <c r="I1" t="str">
+        <v>总支付买家数</v>
+      </c>
+      <c r="J1" t="str">
+        <v>总支付转化率</v>
+      </c>
+      <c r="K1" t="str">
+        <v>总支付件数</v>
+      </c>
+      <c r="L1" t="str">
+        <v>商品浏览量</v>
+      </c>
+      <c r="M1" t="str">
+        <v>商品访客数</v>
+      </c>
+      <c r="N1" t="str">
+        <v>详情页下单买家数</v>
+      </c>
+      <c r="O1" t="str">
+        <v>详情页下单的转化率</v>
+      </c>
+      <c r="P1" t="str">
+        <v>全球差评数(近七天)</v>
+      </c>
+      <c r="Q1" t="str">
+        <v>美区差评数(近七天)</v>
+      </c>
+      <c r="R1" t="str">
+        <v>欧区差评数(近七天)</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>01_1</v>
-      </c>
-      <c r="B2" t="str">
-        <v>美西</v>
+        <v>2025-11-22 / 2025-10-16</v>
+      </c>
+      <c r="B2">
+        <v>68</v>
       </c>
       <c r="C2" t="str">
-        <v>8206668136602840</v>
-      </c>
-      <c r="D2" t="str">
-        <v>62353</v>
-      </c>
-      <c r="E2" t="str">
-        <v>运单号: CNGF001FL2840000003077093</v>
+        <v>51.470588235294116%</v>
+      </c>
+      <c r="E2">
+        <v>1925</v>
       </c>
       <c r="F2" t="str">
-        <v>商品编码:LX-40IN1-BK</v>
-      </c>
-      <c r="G2" t="str">
-        <v>+1 2177737051</v>
-      </c>
-      <c r="H2" t="str">
-        <v>US,Illinois,Mt sterling,1 dot WAY</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>01_2</v>
-      </c>
-      <c r="B3" t="str">
-        <v>美西</v>
-      </c>
-      <c r="C3" t="str">
-        <v>8206459884691266</v>
-      </c>
-      <c r="D3" t="str">
-        <v>94117</v>
-      </c>
-      <c r="E3" t="str">
-        <v>运单号: UUS5B65650236911300</v>
-      </c>
-      <c r="F3" t="str">
-        <v>商品编码:AS-RS2-BK</v>
-      </c>
-      <c r="G3" t="str">
-        <v>+1 4158127892</v>
-      </c>
-      <c r="H3" t="str">
-        <v>US,California,San francisco,1352A Haight st</v>
+        <v>0.00</v>
+      </c>
+      <c r="G2">
+        <v>5214</v>
+      </c>
+      <c r="H2">
+        <v>4213</v>
+      </c>
+      <c r="I2">
+        <v>173</v>
+      </c>
+      <c r="J2" t="str">
+        <v>4.11</v>
+      </c>
+      <c r="K2">
+        <v>188</v>
+      </c>
+      <c r="L2">
+        <v>5189</v>
+      </c>
+      <c r="M2">
+        <v>4208</v>
+      </c>
+      <c r="N2">
+        <v>87</v>
+      </c>
+      <c r="O2" t="str">
+        <v>2.07</v>
+      </c>
+      <c r="P2">
+        <v>3</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:R2"/>
   </ignoredErrors>
 </worksheet>
 </file>